--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D9495C0-8846-4627-855A-BCA98E86EE52}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E1D7678-B30C-4F21-B589-8B5F2F24B2ED}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10420" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -730,10 +730,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1373,6 +1373,59 @@
       </c>
       <c r="P12"/>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E1D7678-B30C-4F21-B589-8B5F2F24B2ED}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB829EEE-694C-415D-9E43-32E24F738A34}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10420" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38380" yWindow="10420" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -733,7 +733,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:Q13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1381,13 +1381,13 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1396,19 +1396,19 @@
         <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
         <v>61</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
         <v>36</v>
@@ -1422,9 +1422,7 @@
       <c r="P13" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" t="s">
-        <v>43</v>
-      </c>
+      <c r="Q13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB829EEE-694C-415D-9E43-32E24F738A34}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2527B31A-1B4D-4615-B54A-6C70F6AC799F}"/>
   <bookViews>
-    <workbookView xWindow="38380" yWindow="10420" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38390" yWindow="10430" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -732,8 +732,8 @@
   </sheetPr>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1422,7 +1422,9 @@
       <c r="P13" t="s">
         <v>54</v>
       </c>
-      <c r="Q13"/>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2527B31A-1B4D-4615-B54A-6C70F6AC799F}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49FE75AE-3039-4EC9-8C93-0F9185BFB1C8}"/>
   <bookViews>
-    <workbookView xWindow="38390" yWindow="10430" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38380" yWindow="0" windowWidth="38420" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Cleveland - Browns</t>
+  </si>
+  <si>
+    <t>Minnesota - Vikings (Local)</t>
   </si>
 </sst>
 </file>
@@ -730,10 +733,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1426,6 +1429,53 @@
         <v>43</v>
       </c>
     </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49FE75AE-3039-4EC9-8C93-0F9185BFB1C8}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{072F4B77-35AB-4FB2-8226-C1DD7217F560}"/>
   <bookViews>
-    <workbookView xWindow="38380" yWindow="0" windowWidth="38420" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="10430" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -733,10 +733,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1476,6 +1476,58 @@
         <v>66</v>
       </c>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15"/>
+      <c r="R15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{072F4B77-35AB-4FB2-8226-C1DD7217F560}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BBA768D-FD03-4DA1-A317-F6D5F5E312D5}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="10430" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38420" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -736,7 +736,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1525,7 +1525,9 @@
       <c r="P15" t="s">
         <v>15</v>
       </c>
-      <c r="Q15"/>
+      <c r="Q15" t="s">
+        <v>60</v>
+      </c>
       <c r="R15"/>
     </row>
   </sheetData>

--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BBA768D-FD03-4DA1-A317-F6D5F5E312D5}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B3A6A4F-DCB3-4AC2-856A-9F311B4B0FF9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38420" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="75">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -733,10 +733,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1530,6 +1530,59 @@
       </c>
       <c r="R15"/>
     </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B3A6A4F-DCB3-4AC2-856A-9F311B4B0FF9}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67A8823-F33B-4CC7-B5F5-2489171FD91D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="10430" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="76">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Minnesota - Vikings (Local)</t>
+  </si>
+  <si>
+    <t>Tennessee - Titans (Local)</t>
   </si>
 </sst>
 </file>
@@ -735,8 +738,8 @@
   </sheetPr>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:Q16"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1550,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
         <v>52</v>
@@ -1559,29 +1562,27 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M16" t="s">
         <v>28</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="O16" t="s">
         <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NFL Resultados 2025.xlsx
+++ b/NFL Resultados 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://citlali-my.sharepoint.com/personal/gaas_citlali_mx/Documents/Personal/Proyectos_personales/NFL/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67A8823-F33B-4CC7-B5F5-2489171FD91D}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_6968B5F38D470AB96E3ACAC9F072370E920A8CED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1059817-E0AD-4668-923D-6A9D5C3F4B24}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="10430" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10420" windowWidth="38420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="76">
   <si>
     <t>Philadelphia - Eagles (Local)</t>
   </si>
@@ -1582,7 +1582,9 @@
       <c r="P16" t="s">
         <v>3</v>
       </c>
-      <c r="Q16"/>
+      <c r="Q16" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
